--- a/bin/Debug/Res/test_0620.xlsx
+++ b/bin/Debug/Res/test_0620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioni\source\repos\Ptnr_Cell4Z9R\bin\Debug\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF13D1D3-7CF7-4C15-A431-C255EC9B5744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D3C40F-803E-471F-B28C-8BB0C5F7D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{A3CF79F8-7487-42DB-B5F4-2FC1CBDBEDC8}"/>
+    <workbookView xWindow="6585" yWindow="435" windowWidth="21600" windowHeight="11295" xr2:uid="{A3CF79F8-7487-42DB-B5F4-2FC1CBDBEDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="항온기_성적서_L1" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="146">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,340 +521,37 @@
     <t>25.0℃</t>
   </si>
   <si>
-    <t>24.9</t>
+    <t>-409.5</t>
   </si>
   <si>
-    <t>25.1</t>
+    <t>-</t>
   </si>
   <si>
-    <t>25.0</t>
+    <t>-4095</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>GOOD</t>
+    <t>NG</t>
   </si>
   <si>
     <t>-40.0℃</t>
   </si>
   <si>
-    <t>-40.1</t>
-  </si>
-  <si>
-    <t>-39.9</t>
-  </si>
-  <si>
-    <t>-40.2</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>-40.0</t>
-  </si>
-  <si>
-    <t>-39.1</t>
-  </si>
-  <si>
     <t>-20.0℃</t>
-  </si>
-  <si>
-    <t>-20.1</t>
-  </si>
-  <si>
-    <t>-19.9</t>
-  </si>
-  <si>
-    <t>-19.4</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>-19.5</t>
   </si>
   <si>
     <t>0.0℃</t>
   </si>
   <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>35.0℃</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>35.6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>35.4</t>
   </si>
   <si>
     <t>45.0℃</t>
   </si>
   <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>45.1</t>
-  </si>
-  <si>
-    <t>45.4</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>44.4</t>
-  </si>
-  <si>
     <t>60.0℃</t>
   </si>
   <si>
-    <t>59.8</t>
-  </si>
-  <si>
-    <t>60.1</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
     <t>80.0℃</t>
-  </si>
-  <si>
-    <t>79.8</t>
-  </si>
-  <si>
-    <t>80.2</t>
-  </si>
-  <si>
-    <t>80.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>79.6</t>
-  </si>
-  <si>
-    <t>81.1</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>-40.5</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>44.1</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>79.9</t>
-  </si>
-  <si>
-    <t>80.1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>80.8</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>-39.2</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>-19.7</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>44.7</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>59.6</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>80.6</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>-39.4</t>
-  </si>
-  <si>
-    <t>-19.6</t>
-  </si>
-  <si>
-    <t>-20.0</t>
-  </si>
-  <si>
-    <t>-19.3</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>59.9</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>60.8</t>
-  </si>
-  <si>
-    <t>80.5</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>81.5</t>
   </si>
   <si>
     <t>test_0620</t>
@@ -2893,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="AG5" s="94" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="AH5" s="94"/>
       <c r="AI5" s="94"/>
@@ -3162,12 +2859,12 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O10" s="55"/>
       <c r="P10" s="56"/>
@@ -3187,31 +2884,31 @@
       <c r="X10" s="55"/>
       <c r="Y10" s="56"/>
       <c r="Z10" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA10" s="58"/>
       <c r="AB10" s="58"/>
       <c r="AC10" s="59"/>
       <c r="AD10" s="60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AE10" s="58"/>
       <c r="AF10" s="58"/>
       <c r="AG10" s="59"/>
       <c r="AH10" s="60" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AI10" s="58"/>
       <c r="AJ10" s="58"/>
       <c r="AK10" s="58"/>
       <c r="AL10" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM10" s="62"/>
       <c r="AN10" s="62"/>
       <c r="AO10" s="63"/>
       <c r="AP10" s="64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AQ10" s="64"/>
       <c r="AR10" s="64"/>
@@ -3221,7 +2918,7 @@
     <row r="11" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -3229,17 +2926,17 @@
       <c r="F11" s="66"/>
       <c r="G11" s="67"/>
       <c r="H11" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O11" s="55"/>
       <c r="P11" s="56"/>
@@ -3259,31 +2956,31 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="60" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AA11" s="58"/>
       <c r="AB11" s="58"/>
       <c r="AC11" s="59"/>
       <c r="AD11" s="60" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AE11" s="58"/>
       <c r="AF11" s="58"/>
       <c r="AG11" s="59"/>
       <c r="AH11" s="60" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
       <c r="AL11" s="62" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AM11" s="62"/>
       <c r="AN11" s="62"/>
       <c r="AO11" s="63"/>
       <c r="AP11" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ11" s="64"/>
       <c r="AR11" s="64"/>
@@ -3293,7 +2990,7 @@
     <row r="12" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="65" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="66"/>
@@ -3301,17 +2998,17 @@
       <c r="F12" s="66"/>
       <c r="G12" s="67"/>
       <c r="H12" s="68" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O12" s="55"/>
       <c r="P12" s="56"/>
@@ -3331,31 +3028,31 @@
       <c r="X12" s="55"/>
       <c r="Y12" s="56"/>
       <c r="Z12" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA12" s="58"/>
       <c r="AB12" s="58"/>
       <c r="AC12" s="59"/>
       <c r="AD12" s="60" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AE12" s="58"/>
       <c r="AF12" s="58"/>
       <c r="AG12" s="59"/>
       <c r="AH12" s="60" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AI12" s="58"/>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="58"/>
       <c r="AL12" s="62" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AM12" s="62"/>
       <c r="AN12" s="62"/>
       <c r="AO12" s="63"/>
       <c r="AP12" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ12" s="64"/>
       <c r="AR12" s="64"/>
@@ -3365,7 +3062,7 @@
     <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
@@ -3373,17 +3070,17 @@
       <c r="F13" s="66"/>
       <c r="G13" s="67"/>
       <c r="H13" s="68" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
       <c r="K13" s="55" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O13" s="55"/>
       <c r="P13" s="56"/>
@@ -3403,31 +3100,31 @@
       <c r="X13" s="55"/>
       <c r="Y13" s="56"/>
       <c r="Z13" s="60" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="AA13" s="58"/>
       <c r="AB13" s="58"/>
       <c r="AC13" s="59"/>
       <c r="AD13" s="60" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AE13" s="58"/>
       <c r="AF13" s="58"/>
       <c r="AG13" s="59"/>
       <c r="AH13" s="60" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
       <c r="AL13" s="62" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AM13" s="62"/>
       <c r="AN13" s="62"/>
       <c r="AO13" s="63"/>
       <c r="AP13" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ13" s="64"/>
       <c r="AR13" s="64"/>
@@ -3437,7 +3134,7 @@
     <row r="14" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="65" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -3445,17 +3142,17 @@
       <c r="F14" s="66"/>
       <c r="G14" s="67"/>
       <c r="H14" s="68" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O14" s="55"/>
       <c r="P14" s="56"/>
@@ -3475,31 +3172,31 @@
       <c r="X14" s="55"/>
       <c r="Y14" s="56"/>
       <c r="Z14" s="60" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="AA14" s="58"/>
       <c r="AB14" s="58"/>
       <c r="AC14" s="59"/>
       <c r="AD14" s="60" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="AE14" s="58"/>
       <c r="AF14" s="58"/>
       <c r="AG14" s="59"/>
       <c r="AH14" s="60" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AI14" s="58"/>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="58"/>
       <c r="AL14" s="62" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM14" s="62"/>
       <c r="AN14" s="62"/>
       <c r="AO14" s="63"/>
       <c r="AP14" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ14" s="64"/>
       <c r="AR14" s="64"/>
@@ -3509,7 +3206,7 @@
     <row r="15" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="65" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="66"/>
@@ -3517,17 +3214,17 @@
       <c r="F15" s="66"/>
       <c r="G15" s="67"/>
       <c r="H15" s="68" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="55" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="O15" s="55"/>
       <c r="P15" s="56"/>
@@ -3547,31 +3244,31 @@
       <c r="X15" s="55"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="60" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="AA15" s="58"/>
       <c r="AB15" s="58"/>
       <c r="AC15" s="59"/>
       <c r="AD15" s="60" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="AE15" s="58"/>
       <c r="AF15" s="58"/>
       <c r="AG15" s="59"/>
       <c r="AH15" s="60" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="AI15" s="58"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="58"/>
       <c r="AL15" s="62" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AM15" s="62"/>
       <c r="AN15" s="62"/>
       <c r="AO15" s="63"/>
       <c r="AP15" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ15" s="64"/>
       <c r="AR15" s="64"/>
@@ -3581,7 +3278,7 @@
     <row r="16" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="65" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
@@ -3589,17 +3286,17 @@
       <c r="F16" s="66"/>
       <c r="G16" s="67"/>
       <c r="H16" s="68" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
       <c r="K16" s="55" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="55" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="O16" s="55"/>
       <c r="P16" s="56"/>
@@ -3619,31 +3316,31 @@
       <c r="X16" s="55"/>
       <c r="Y16" s="56"/>
       <c r="Z16" s="60" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="58"/>
       <c r="AB16" s="58"/>
       <c r="AC16" s="59"/>
       <c r="AD16" s="60" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="AE16" s="58"/>
       <c r="AF16" s="58"/>
       <c r="AG16" s="59"/>
       <c r="AH16" s="60" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="AI16" s="58"/>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="58"/>
       <c r="AL16" s="62" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="AM16" s="62"/>
       <c r="AN16" s="62"/>
       <c r="AO16" s="63"/>
       <c r="AP16" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ16" s="64"/>
       <c r="AR16" s="64"/>
@@ -3653,7 +3350,7 @@
     <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="65" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
@@ -3661,17 +3358,17 @@
       <c r="F17" s="66"/>
       <c r="G17" s="67"/>
       <c r="H17" s="68" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
       <c r="K17" s="55" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="55"/>
       <c r="N17" s="55" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="O17" s="55"/>
       <c r="P17" s="56"/>
@@ -3691,31 +3388,31 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="60" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="AA17" s="58"/>
       <c r="AB17" s="58"/>
       <c r="AC17" s="59"/>
       <c r="AD17" s="60" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="AE17" s="58"/>
       <c r="AF17" s="58"/>
       <c r="AG17" s="59"/>
       <c r="AH17" s="60" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="AI17" s="58"/>
       <c r="AJ17" s="58"/>
       <c r="AK17" s="58"/>
       <c r="AL17" s="62" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AM17" s="62"/>
       <c r="AN17" s="62"/>
       <c r="AO17" s="63"/>
       <c r="AP17" s="64" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="AQ17" s="64"/>
       <c r="AR17" s="64"/>
@@ -3769,7 +3466,7 @@
       <c r="AB18" s="58"/>
       <c r="AC18" s="59"/>
       <c r="AD18" s="60" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="AE18" s="58"/>
       <c r="AF18" s="58"/>
@@ -3787,7 +3484,7 @@
       <c r="AN18" s="62"/>
       <c r="AO18" s="63"/>
       <c r="AP18" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ18" s="64"/>
       <c r="AR18" s="64"/>
@@ -3869,7 +3566,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="71"/>
       <c r="H20" s="72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
@@ -3879,7 +3576,7 @@
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="O20" s="55"/>
       <c r="P20" s="56"/>
@@ -3899,13 +3596,13 @@
       <c r="X20" s="55"/>
       <c r="Y20" s="56"/>
       <c r="Z20" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA20" s="58"/>
       <c r="AB20" s="58"/>
       <c r="AC20" s="59"/>
       <c r="AD20" s="60" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
@@ -3917,13 +3614,13 @@
       <c r="AJ20" s="58"/>
       <c r="AK20" s="58"/>
       <c r="AL20" s="62" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AM20" s="62"/>
       <c r="AN20" s="62"/>
       <c r="AO20" s="63"/>
       <c r="AP20" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ20" s="64"/>
       <c r="AR20" s="64"/>
@@ -3933,7 +3630,7 @@
     <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
@@ -3941,17 +3638,17 @@
       <c r="F21" s="66"/>
       <c r="G21" s="67"/>
       <c r="H21" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="55" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O21" s="55"/>
       <c r="P21" s="56"/>
@@ -3971,31 +3668,31 @@
       <c r="X21" s="55"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="60" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="AA21" s="58"/>
       <c r="AB21" s="58"/>
       <c r="AC21" s="59"/>
       <c r="AD21" s="60" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="AE21" s="58"/>
       <c r="AF21" s="58"/>
       <c r="AG21" s="59"/>
       <c r="AH21" s="60" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="AI21" s="58"/>
       <c r="AJ21" s="58"/>
       <c r="AK21" s="58"/>
       <c r="AL21" s="62" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AM21" s="62"/>
       <c r="AN21" s="62"/>
       <c r="AO21" s="63"/>
       <c r="AP21" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ21" s="64"/>
       <c r="AR21" s="64"/>
@@ -4005,7 +3702,7 @@
     <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="65" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
@@ -4013,17 +3710,17 @@
       <c r="F22" s="66"/>
       <c r="G22" s="67"/>
       <c r="H22" s="68" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
       <c r="N22" s="55" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O22" s="55"/>
       <c r="P22" s="56"/>
@@ -4043,31 +3740,31 @@
       <c r="X22" s="55"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA22" s="58"/>
       <c r="AB22" s="58"/>
       <c r="AC22" s="59"/>
       <c r="AD22" s="60" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="AE22" s="58"/>
       <c r="AF22" s="58"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="60" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="58"/>
       <c r="AK22" s="58"/>
       <c r="AL22" s="62" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AM22" s="62"/>
       <c r="AN22" s="62"/>
       <c r="AO22" s="63"/>
       <c r="AP22" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
@@ -4077,7 +3774,7 @@
     <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
@@ -4085,17 +3782,17 @@
       <c r="F23" s="66"/>
       <c r="G23" s="67"/>
       <c r="H23" s="68" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
       <c r="K23" s="55" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
       <c r="N23" s="55" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="O23" s="55"/>
       <c r="P23" s="56"/>
@@ -4115,31 +3812,31 @@
       <c r="X23" s="55"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA23" s="58"/>
       <c r="AB23" s="58"/>
       <c r="AC23" s="59"/>
       <c r="AD23" s="60" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="AE23" s="58"/>
       <c r="AF23" s="58"/>
       <c r="AG23" s="59"/>
       <c r="AH23" s="60" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AI23" s="58"/>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
       <c r="AL23" s="62" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="AM23" s="62"/>
       <c r="AN23" s="62"/>
       <c r="AO23" s="63"/>
       <c r="AP23" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ23" s="64"/>
       <c r="AR23" s="64"/>
@@ -4149,7 +3846,7 @@
     <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="65" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
@@ -4157,17 +3854,17 @@
       <c r="F24" s="66"/>
       <c r="G24" s="67"/>
       <c r="H24" s="68" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="55" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
       <c r="N24" s="55" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="O24" s="55"/>
       <c r="P24" s="56"/>
@@ -4187,31 +3884,31 @@
       <c r="X24" s="55"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="60" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="AA24" s="58"/>
       <c r="AB24" s="58"/>
       <c r="AC24" s="59"/>
       <c r="AD24" s="60" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
       <c r="AG24" s="59"/>
       <c r="AH24" s="60" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="AI24" s="58"/>
       <c r="AJ24" s="58"/>
       <c r="AK24" s="58"/>
       <c r="AL24" s="62" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AM24" s="62"/>
       <c r="AN24" s="62"/>
       <c r="AO24" s="63"/>
       <c r="AP24" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ24" s="64"/>
       <c r="AR24" s="64"/>
@@ -4221,7 +3918,7 @@
     <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="65" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
@@ -4229,17 +3926,17 @@
       <c r="F25" s="66"/>
       <c r="G25" s="67"/>
       <c r="H25" s="68" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="55" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
       <c r="N25" s="55" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O25" s="55"/>
       <c r="P25" s="56"/>
@@ -4259,31 +3956,31 @@
       <c r="X25" s="55"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="60" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="AA25" s="58"/>
       <c r="AB25" s="58"/>
       <c r="AC25" s="59"/>
       <c r="AD25" s="60" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="AE25" s="58"/>
       <c r="AF25" s="58"/>
       <c r="AG25" s="59"/>
       <c r="AH25" s="60" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="AI25" s="58"/>
       <c r="AJ25" s="58"/>
       <c r="AK25" s="58"/>
       <c r="AL25" s="62" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AM25" s="62"/>
       <c r="AN25" s="62"/>
       <c r="AO25" s="63"/>
       <c r="AP25" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="64"/>
@@ -4293,7 +3990,7 @@
     <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="65" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="66"/>
@@ -4301,17 +3998,17 @@
       <c r="F26" s="66"/>
       <c r="G26" s="67"/>
       <c r="H26" s="68" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
       <c r="K26" s="55" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
       <c r="N26" s="55" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="O26" s="55"/>
       <c r="P26" s="56"/>
@@ -4331,31 +4028,31 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="60" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="AA26" s="58"/>
       <c r="AB26" s="58"/>
       <c r="AC26" s="59"/>
       <c r="AD26" s="60" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="AE26" s="58"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="59"/>
       <c r="AH26" s="60" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="58"/>
       <c r="AL26" s="62" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="AM26" s="62"/>
       <c r="AN26" s="62"/>
       <c r="AO26" s="63"/>
       <c r="AP26" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ26" s="64"/>
       <c r="AR26" s="64"/>
@@ -4365,7 +4062,7 @@
     <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="65" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
@@ -4373,17 +4070,17 @@
       <c r="F27" s="66"/>
       <c r="G27" s="67"/>
       <c r="H27" s="68" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
       <c r="N27" s="55" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="O27" s="55"/>
       <c r="P27" s="56"/>
@@ -4403,31 +4100,31 @@
       <c r="X27" s="55"/>
       <c r="Y27" s="56"/>
       <c r="Z27" s="60" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="AA27" s="58"/>
       <c r="AB27" s="58"/>
       <c r="AC27" s="59"/>
       <c r="AD27" s="60" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="AE27" s="58"/>
       <c r="AF27" s="58"/>
       <c r="AG27" s="59"/>
       <c r="AH27" s="60" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="AI27" s="58"/>
       <c r="AJ27" s="58"/>
       <c r="AK27" s="58"/>
       <c r="AL27" s="62" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="AM27" s="62"/>
       <c r="AN27" s="62"/>
       <c r="AO27" s="63"/>
       <c r="AP27" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ27" s="64"/>
       <c r="AR27" s="64"/>
@@ -4481,7 +4178,7 @@
       <c r="AB28" s="58"/>
       <c r="AC28" s="59"/>
       <c r="AD28" s="60" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="AE28" s="58"/>
       <c r="AF28" s="58"/>
@@ -4499,7 +4196,7 @@
       <c r="AN28" s="62"/>
       <c r="AO28" s="63"/>
       <c r="AP28" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ28" s="64"/>
       <c r="AR28" s="64"/>
@@ -4581,7 +4278,7 @@
       <c r="F30" s="70"/>
       <c r="G30" s="71"/>
       <c r="H30" s="72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
@@ -4611,31 +4308,31 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA30" s="58"/>
       <c r="AB30" s="58"/>
       <c r="AC30" s="59"/>
       <c r="AD30" s="60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE30" s="58"/>
       <c r="AF30" s="58"/>
       <c r="AG30" s="59"/>
       <c r="AH30" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI30" s="58"/>
       <c r="AJ30" s="58"/>
       <c r="AK30" s="58"/>
       <c r="AL30" s="62" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="AM30" s="62"/>
       <c r="AN30" s="62"/>
       <c r="AO30" s="63"/>
       <c r="AP30" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ30" s="64"/>
       <c r="AR30" s="64"/>
@@ -4645,7 +4342,7 @@
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -4653,17 +4350,17 @@
       <c r="F31" s="66"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
       <c r="K31" s="55" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
       <c r="N31" s="55" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O31" s="55"/>
       <c r="P31" s="56"/>
@@ -4683,31 +4380,31 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="56"/>
       <c r="Z31" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA31" s="58"/>
       <c r="AB31" s="58"/>
       <c r="AC31" s="59"/>
       <c r="AD31" s="60" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="AE31" s="58"/>
       <c r="AF31" s="58"/>
       <c r="AG31" s="59"/>
       <c r="AH31" s="60" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AI31" s="58"/>
       <c r="AJ31" s="58"/>
       <c r="AK31" s="58"/>
       <c r="AL31" s="62" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="AM31" s="62"/>
       <c r="AN31" s="62"/>
       <c r="AO31" s="63"/>
       <c r="AP31" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
@@ -4717,7 +4414,7 @@
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="65" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="66"/>
@@ -4725,17 +4422,17 @@
       <c r="F32" s="66"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
       <c r="K32" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="55" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O32" s="55"/>
       <c r="P32" s="56"/>
@@ -4755,31 +4452,31 @@
       <c r="X32" s="55"/>
       <c r="Y32" s="56"/>
       <c r="Z32" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
       <c r="AC32" s="59"/>
       <c r="AD32" s="60" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="AE32" s="58"/>
       <c r="AF32" s="58"/>
       <c r="AG32" s="59"/>
       <c r="AH32" s="60" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="AI32" s="58"/>
       <c r="AJ32" s="58"/>
       <c r="AK32" s="58"/>
       <c r="AL32" s="62" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AM32" s="62"/>
       <c r="AN32" s="62"/>
       <c r="AO32" s="63"/>
       <c r="AP32" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ32" s="64"/>
       <c r="AR32" s="64"/>
@@ -4789,7 +4486,7 @@
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="66"/>
@@ -4797,17 +4494,17 @@
       <c r="F33" s="66"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
       <c r="K33" s="55" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
       <c r="N33" s="55" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="O33" s="55"/>
       <c r="P33" s="56"/>
@@ -4827,31 +4524,31 @@
       <c r="X33" s="55"/>
       <c r="Y33" s="56"/>
       <c r="Z33" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58"/>
       <c r="AC33" s="59"/>
       <c r="AD33" s="60" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="AE33" s="58"/>
       <c r="AF33" s="58"/>
       <c r="AG33" s="59"/>
       <c r="AH33" s="60" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AI33" s="58"/>
       <c r="AJ33" s="58"/>
       <c r="AK33" s="58"/>
       <c r="AL33" s="62" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="AM33" s="62"/>
       <c r="AN33" s="62"/>
       <c r="AO33" s="63"/>
       <c r="AP33" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
@@ -4861,7 +4558,7 @@
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="65" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
@@ -4869,17 +4566,17 @@
       <c r="F34" s="66"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L34" s="55"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="O34" s="55"/>
       <c r="P34" s="56"/>
@@ -4899,31 +4596,31 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="56"/>
       <c r="Z34" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58"/>
       <c r="AC34" s="59"/>
       <c r="AD34" s="60" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="AE34" s="58"/>
       <c r="AF34" s="58"/>
       <c r="AG34" s="59"/>
       <c r="AH34" s="60" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="AI34" s="58"/>
       <c r="AJ34" s="58"/>
       <c r="AK34" s="58"/>
       <c r="AL34" s="62" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM34" s="62"/>
       <c r="AN34" s="62"/>
       <c r="AO34" s="63"/>
       <c r="AP34" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
@@ -4933,7 +4630,7 @@
     <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="65" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
@@ -4941,17 +4638,17 @@
       <c r="F35" s="66"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L35" s="55"/>
       <c r="M35" s="55"/>
       <c r="N35" s="55" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O35" s="55"/>
       <c r="P35" s="56"/>
@@ -4971,31 +4668,31 @@
       <c r="X35" s="55"/>
       <c r="Y35" s="56"/>
       <c r="Z35" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
       <c r="AC35" s="59"/>
       <c r="AD35" s="60" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="AE35" s="58"/>
       <c r="AF35" s="58"/>
       <c r="AG35" s="59"/>
       <c r="AH35" s="60" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="AI35" s="58"/>
       <c r="AJ35" s="58"/>
       <c r="AK35" s="58"/>
       <c r="AL35" s="62" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="AM35" s="62"/>
       <c r="AN35" s="62"/>
       <c r="AO35" s="63"/>
       <c r="AP35" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
@@ -5005,7 +4702,7 @@
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="65" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="66"/>
@@ -5013,17 +4710,17 @@
       <c r="F36" s="66"/>
       <c r="G36" s="67"/>
       <c r="H36" s="68" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="55"/>
       <c r="N36" s="55" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="O36" s="55"/>
       <c r="P36" s="56"/>
@@ -5043,31 +4740,31 @@
       <c r="X36" s="55"/>
       <c r="Y36" s="56"/>
       <c r="Z36" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="60" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="AE36" s="58"/>
       <c r="AF36" s="58"/>
       <c r="AG36" s="59"/>
       <c r="AH36" s="60" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="AI36" s="58"/>
       <c r="AJ36" s="58"/>
       <c r="AK36" s="58"/>
       <c r="AL36" s="62" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="AM36" s="62"/>
       <c r="AN36" s="62"/>
       <c r="AO36" s="63"/>
       <c r="AP36" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ36" s="64"/>
       <c r="AR36" s="64"/>
@@ -5077,7 +4774,7 @@
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="65" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C37" s="66"/>
       <c r="D37" s="66"/>
@@ -5085,17 +4782,17 @@
       <c r="F37" s="66"/>
       <c r="G37" s="67"/>
       <c r="H37" s="68" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="O37" s="55"/>
       <c r="P37" s="56"/>
@@ -5115,31 +4812,31 @@
       <c r="X37" s="55"/>
       <c r="Y37" s="56"/>
       <c r="Z37" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58"/>
       <c r="AC37" s="59"/>
       <c r="AD37" s="60" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="AE37" s="58"/>
       <c r="AF37" s="58"/>
       <c r="AG37" s="59"/>
       <c r="AH37" s="60" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="AI37" s="58"/>
       <c r="AJ37" s="58"/>
       <c r="AK37" s="58"/>
       <c r="AL37" s="62" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="AM37" s="62"/>
       <c r="AN37" s="62"/>
       <c r="AO37" s="63"/>
       <c r="AP37" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
@@ -5193,7 +4890,7 @@
       <c r="AB38" s="58"/>
       <c r="AC38" s="59"/>
       <c r="AD38" s="60" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="AE38" s="58"/>
       <c r="AF38" s="58"/>
@@ -5211,7 +4908,7 @@
       <c r="AN38" s="62"/>
       <c r="AO38" s="63"/>
       <c r="AP38" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="64"/>
@@ -5293,7 +4990,7 @@
       <c r="F40" s="70"/>
       <c r="G40" s="71"/>
       <c r="H40" s="72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
@@ -5303,7 +5000,7 @@
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O40" s="55"/>
       <c r="P40" s="56"/>
@@ -5323,31 +5020,31 @@
       <c r="X40" s="55"/>
       <c r="Y40" s="56"/>
       <c r="Z40" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58"/>
       <c r="AC40" s="59"/>
       <c r="AD40" s="60" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="AE40" s="58"/>
       <c r="AF40" s="58"/>
       <c r="AG40" s="59"/>
       <c r="AH40" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AI40" s="58"/>
       <c r="AJ40" s="58"/>
       <c r="AK40" s="58"/>
       <c r="AL40" s="62" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="AM40" s="62"/>
       <c r="AN40" s="62"/>
       <c r="AO40" s="63"/>
       <c r="AP40" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="64"/>
@@ -5357,7 +5054,7 @@
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C41" s="66"/>
       <c r="D41" s="66"/>
@@ -5365,17 +5062,17 @@
       <c r="F41" s="66"/>
       <c r="G41" s="67"/>
       <c r="H41" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="55" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="55"/>
       <c r="N41" s="55" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O41" s="55"/>
       <c r="P41" s="56"/>
@@ -5395,31 +5092,31 @@
       <c r="X41" s="55"/>
       <c r="Y41" s="56"/>
       <c r="Z41" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA41" s="58"/>
       <c r="AB41" s="58"/>
       <c r="AC41" s="59"/>
       <c r="AD41" s="60" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="AE41" s="58"/>
       <c r="AF41" s="58"/>
       <c r="AG41" s="59"/>
       <c r="AH41" s="60" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AI41" s="58"/>
       <c r="AJ41" s="58"/>
       <c r="AK41" s="58"/>
       <c r="AL41" s="62" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="AM41" s="62"/>
       <c r="AN41" s="62"/>
       <c r="AO41" s="63"/>
       <c r="AP41" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ41" s="64"/>
       <c r="AR41" s="64"/>
@@ -5429,7 +5126,7 @@
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="65" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
@@ -5437,17 +5134,17 @@
       <c r="F42" s="66"/>
       <c r="G42" s="67"/>
       <c r="H42" s="68" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="55"/>
       <c r="N42" s="55" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="O42" s="55"/>
       <c r="P42" s="56"/>
@@ -5467,31 +5164,31 @@
       <c r="X42" s="55"/>
       <c r="Y42" s="56"/>
       <c r="Z42" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA42" s="58"/>
       <c r="AB42" s="58"/>
       <c r="AC42" s="59"/>
       <c r="AD42" s="60" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AE42" s="58"/>
       <c r="AF42" s="58"/>
       <c r="AG42" s="59"/>
       <c r="AH42" s="60" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="AI42" s="58"/>
       <c r="AJ42" s="58"/>
       <c r="AK42" s="58"/>
       <c r="AL42" s="62" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="AM42" s="62"/>
       <c r="AN42" s="62"/>
       <c r="AO42" s="63"/>
       <c r="AP42" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ42" s="64"/>
       <c r="AR42" s="64"/>
@@ -5501,7 +5198,7 @@
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C43" s="66"/>
       <c r="D43" s="66"/>
@@ -5509,17 +5206,17 @@
       <c r="F43" s="66"/>
       <c r="G43" s="67"/>
       <c r="H43" s="68" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
       <c r="K43" s="55" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="O43" s="55"/>
       <c r="P43" s="56"/>
@@ -5539,31 +5236,31 @@
       <c r="X43" s="55"/>
       <c r="Y43" s="56"/>
       <c r="Z43" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58"/>
       <c r="AC43" s="59"/>
       <c r="AD43" s="60" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="AE43" s="58"/>
       <c r="AF43" s="58"/>
       <c r="AG43" s="59"/>
       <c r="AH43" s="60" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AI43" s="58"/>
       <c r="AJ43" s="58"/>
       <c r="AK43" s="58"/>
       <c r="AL43" s="62" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AM43" s="62"/>
       <c r="AN43" s="62"/>
       <c r="AO43" s="63"/>
       <c r="AP43" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ43" s="64"/>
       <c r="AR43" s="64"/>
@@ -5573,7 +5270,7 @@
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="65" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
@@ -5581,17 +5278,17 @@
       <c r="F44" s="66"/>
       <c r="G44" s="67"/>
       <c r="H44" s="68" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
       <c r="K44" s="55" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="O44" s="55"/>
       <c r="P44" s="56"/>
@@ -5611,31 +5308,31 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="56"/>
       <c r="Z44" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58"/>
       <c r="AC44" s="59"/>
       <c r="AD44" s="60" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="AE44" s="58"/>
       <c r="AF44" s="58"/>
       <c r="AG44" s="59"/>
       <c r="AH44" s="60" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AI44" s="58"/>
       <c r="AJ44" s="58"/>
       <c r="AK44" s="58"/>
       <c r="AL44" s="62" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AM44" s="62"/>
       <c r="AN44" s="62"/>
       <c r="AO44" s="63"/>
       <c r="AP44" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ44" s="64"/>
       <c r="AR44" s="64"/>
@@ -5645,7 +5342,7 @@
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="65" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
@@ -5653,17 +5350,17 @@
       <c r="F45" s="66"/>
       <c r="G45" s="67"/>
       <c r="H45" s="68" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="55" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O45" s="55"/>
       <c r="P45" s="56"/>
@@ -5683,31 +5380,31 @@
       <c r="X45" s="55"/>
       <c r="Y45" s="56"/>
       <c r="Z45" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA45" s="58"/>
       <c r="AB45" s="58"/>
       <c r="AC45" s="59"/>
       <c r="AD45" s="60" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="AE45" s="58"/>
       <c r="AF45" s="58"/>
       <c r="AG45" s="59"/>
       <c r="AH45" s="60" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="58"/>
       <c r="AL45" s="62" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="AM45" s="62"/>
       <c r="AN45" s="62"/>
       <c r="AO45" s="63"/>
       <c r="AP45" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ45" s="64"/>
       <c r="AR45" s="64"/>
@@ -5717,7 +5414,7 @@
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="65" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
@@ -5725,17 +5422,17 @@
       <c r="F46" s="66"/>
       <c r="G46" s="67"/>
       <c r="H46" s="68" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
       <c r="K46" s="55" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="O46" s="55"/>
       <c r="P46" s="56"/>
@@ -5755,31 +5452,31 @@
       <c r="X46" s="55"/>
       <c r="Y46" s="56"/>
       <c r="Z46" s="60" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58"/>
       <c r="AC46" s="59"/>
       <c r="AD46" s="60" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="AE46" s="58"/>
       <c r="AF46" s="58"/>
       <c r="AG46" s="59"/>
       <c r="AH46" s="60" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="AI46" s="58"/>
       <c r="AJ46" s="58"/>
       <c r="AK46" s="58"/>
       <c r="AL46" s="62" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="AM46" s="62"/>
       <c r="AN46" s="62"/>
       <c r="AO46" s="63"/>
       <c r="AP46" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ46" s="64"/>
       <c r="AR46" s="64"/>
@@ -5789,7 +5486,7 @@
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="65" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C47" s="66"/>
       <c r="D47" s="66"/>
@@ -5797,17 +5494,17 @@
       <c r="F47" s="66"/>
       <c r="G47" s="67"/>
       <c r="H47" s="68" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="O47" s="55"/>
       <c r="P47" s="56"/>
@@ -5827,31 +5524,31 @@
       <c r="X47" s="55"/>
       <c r="Y47" s="56"/>
       <c r="Z47" s="60" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58"/>
       <c r="AC47" s="59"/>
       <c r="AD47" s="60" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="AE47" s="58"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="59"/>
       <c r="AH47" s="60" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="AI47" s="58"/>
       <c r="AJ47" s="58"/>
       <c r="AK47" s="58"/>
       <c r="AL47" s="62" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="AM47" s="62"/>
       <c r="AN47" s="62"/>
       <c r="AO47" s="63"/>
       <c r="AP47" s="64" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="AQ47" s="64"/>
       <c r="AR47" s="64"/>
@@ -5905,7 +5602,7 @@
       <c r="AB48" s="58"/>
       <c r="AC48" s="59"/>
       <c r="AD48" s="60" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="AE48" s="58"/>
       <c r="AF48" s="58"/>
@@ -5923,7 +5620,7 @@
       <c r="AN48" s="62"/>
       <c r="AO48" s="63"/>
       <c r="AP48" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AQ48" s="64"/>
       <c r="AR48" s="64"/>
@@ -6108,7 +5805,7 @@
       <c r="K52" s="103"/>
       <c r="L52" s="103"/>
       <c r="M52" s="104">
-        <v>45464</v>
+        <v>45502</v>
       </c>
       <c r="N52" s="105"/>
       <c r="O52" s="105"/>
@@ -6164,7 +5861,7 @@
       <c r="K53" s="107"/>
       <c r="L53" s="107"/>
       <c r="M53" s="74" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
